--- a/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Rol_2020-Febrero.xlsx
+++ b/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Rol_2020-Febrero.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
